--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.320719352480722</v>
+        <v>65.320719395061715</v>
       </c>
       <c r="C2">
-        <v>68.567151239515738</v>
+        <v>68.567151221587153</v>
       </c>
       <c r="D2">
-        <v>58.77993261457064</v>
+        <v>58.779932629589901</v>
       </c>
       <c r="E2">
-        <v>72.618546112712949</v>
+        <v>72.61854611349807</v>
       </c>
       <c r="F2">
-        <v>45.207014915627681</v>
+        <v>45.207014903180728</v>
       </c>
       <c r="G2">
-        <v>57.336423083464396</v>
+        <v>57.33642307604574</v>
       </c>
       <c r="H2">
-        <v>50.882517835785855</v>
+        <v>50.882517796281185</v>
       </c>
       <c r="I2">
-        <v>60.872849402483432</v>
+        <v>60.872849403347615</v>
       </c>
       <c r="J2">
-        <v>72.229963555573732</v>
+        <v>72.229963618263923</v>
       </c>
       <c r="K2">
-        <v>56.640944780927626</v>
+        <v>56.640944762568736</v>
       </c>
       <c r="L2">
-        <v>57.349827081744841</v>
+        <v>57.349827085648187</v>
       </c>
       <c r="M2">
-        <v>66.014516839830378</v>
+        <v>66.014516837728138</v>
       </c>
       <c r="N2">
-        <v>63.777680022507823</v>
+        <v>63.777680001298435</v>
       </c>
       <c r="O2">
-        <v>50.720883995457143</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="P2">
-        <v>62.076159891075562</v>
+        <v>62.076159881430776</v>
       </c>
       <c r="Q2">
-        <v>63.467330093484748</v>
+        <v>63.467330085358093</v>
       </c>
       <c r="R2">
-        <v>56.772752200810771</v>
+        <v>56.772752221374418</v>
       </c>
       <c r="S2">
-        <v>86.314184649153816</v>
+        <v>86.314184649541147</v>
       </c>
       <c r="T2">
-        <v>65.740766928720603</v>
+        <v>65.740766928298285</v>
       </c>
       <c r="U2">
-        <v>60.876303846217809</v>
+        <v>60.876303837554978</v>
       </c>
       <c r="V2">
-        <v>53.977081054785771</v>
+        <v>53.977081018188876</v>
       </c>
       <c r="W2">
-        <v>49.615576616708367</v>
+        <v>49.615576494916738</v>
       </c>
       <c r="X2">
-        <v>59.015869824449688</v>
+        <v>59.015869817327037</v>
       </c>
       <c r="Y2">
-        <v>62.466362171694058</v>
+        <v>62.466362129677222</v>
       </c>
       <c r="Z2">
-        <v>61.626800756371836</v>
+        <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>80.813194757362439</v>
+        <v>80.813194738896286</v>
       </c>
       <c r="AB2">
-        <v>82.165333874942007</v>
+        <v>82.165333920838179</v>
       </c>
       <c r="AC2">
-        <v>54.869620982359919</v>
+        <v>54.869620958936594</v>
       </c>
       <c r="AD2">
-        <v>80.461113082417384</v>
+        <v>80.461113095409729</v>
       </c>
       <c r="AE2">
-        <v>53.33732501995781</v>
+        <v>53.337324879504266</v>
       </c>
       <c r="AF2">
-        <v>61.643993067461409</v>
+        <v>61.643992979731699</v>
       </c>
       <c r="AG2">
-        <v>55.145100942597011</v>
+        <v>55.145100973893314</v>
       </c>
       <c r="AH2">
-        <v>64.436143816351006</v>
+        <v>64.436143765629126</v>
       </c>
       <c r="AI2">
-        <v>84.602018385632007</v>
+        <v>84.602018253757322</v>
       </c>
       <c r="AJ2">
-        <v>60.888055951794385</v>
+        <v>60.888055844081755</v>
       </c>
       <c r="AK2">
-        <v>63.241296244732467</v>
+        <v>63.241296270244163</v>
       </c>
       <c r="AL2">
-        <v>72.139036197277477</v>
+        <v>72.139036106422793</v>
       </c>
       <c r="AM2">
-        <v>67.619525025977083</v>
+        <v>67.619524936529714</v>
       </c>
       <c r="AN2">
-        <v>53.094941877967401</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="AO2">
-        <v>71.273754708878158</v>
+        <v>71.273754759340804</v>
       </c>
       <c r="AP2">
-        <v>69.541424016058073</v>
+        <v>69.541423912280919</v>
       </c>
       <c r="AQ2">
-        <v>60.124740185581437</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="AR2">
-        <v>83.454139699676205</v>
+        <v>83.454139703032553</v>
       </c>
       <c r="AS2">
-        <v>76.813368238506143</v>
+        <v>76.813368191467248</v>
       </c>
       <c r="AT2">
-        <v>68.649980891863436</v>
+        <v>68.649980972873649</v>
       </c>
       <c r="AU2">
-        <v>60.380176754921294</v>
+        <v>60.380176699017362</v>
       </c>
       <c r="AV2">
-        <v>64.254420872476715</v>
+        <v>64.254420917441806</v>
       </c>
       <c r="AW2">
-        <v>59.306639450598936</v>
+        <v>59.306639370164078</v>
       </c>
       <c r="AX2">
-        <v>71.066739342904995</v>
+        <v>71.066739407832372</v>
       </c>
       <c r="AY2">
-        <v>70.91955135979984</v>
+        <v>70.919551376828082</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>70.384486170290501</v>
       </c>
       <c r="C3">
-        <v>63.996006396665244</v>
+        <v>63.99600640345804</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>60.483041289375052</v>
       </c>
       <c r="E3">
-        <v>66.929347781275865</v>
+        <v>66.929347802437107</v>
       </c>
       <c r="F3">
-        <v>45.175716959040436</v>
+        <v>45.175716946168976</v>
       </c>
       <c r="G3">
-        <v>62.732375672187359</v>
+        <v>62.73237571745539</v>
       </c>
       <c r="H3">
-        <v>45.594277459440846</v>
+        <v>45.59427745884382</v>
       </c>
       <c r="I3">
-        <v>63.260513873132929</v>
+        <v>63.260513863655902</v>
       </c>
       <c r="J3">
-        <v>76.008676301593837</v>
+        <v>76.008676474135257</v>
       </c>
       <c r="K3">
-        <v>67.112717099899967</v>
+        <v>67.112717097407</v>
       </c>
       <c r="L3">
-        <v>60.884565316744826</v>
+        <v>60.884565302468019</v>
       </c>
       <c r="M3">
-        <v>67.805590888195127</v>
+        <v>67.805439516043904</v>
       </c>
       <c r="N3">
-        <v>64.919210043175056</v>
+        <v>64.919210033023205</v>
       </c>
       <c r="O3">
-        <v>40.183489864450188</v>
+        <v>40.183489811746355</v>
       </c>
       <c r="P3">
-        <v>66.101075120337924</v>
+        <v>66.1010750680895</v>
       </c>
       <c r="Q3">
-        <v>57.019624643466813</v>
+        <v>57.019624664317838</v>
       </c>
       <c r="R3">
-        <v>51.026369658694222</v>
+        <v>51.026369555577283</v>
       </c>
       <c r="S3">
-        <v>77.220094703805302</v>
+        <v>77.220094697652357</v>
       </c>
       <c r="T3">
-        <v>66.556143540183584</v>
+        <v>66.556143552308242</v>
       </c>
       <c r="U3">
-        <v>64.123316515215578</v>
+        <v>64.123316523739476</v>
       </c>
       <c r="V3">
-        <v>57.68487895567101</v>
+        <v>57.684878958112506</v>
       </c>
       <c r="W3">
-        <v>53.300516955851016</v>
+        <v>53.300516967831847</v>
       </c>
       <c r="X3">
-        <v>52.397032793658539</v>
+        <v>52.39703278113754</v>
       </c>
       <c r="Y3">
-        <v>71.614780002865942</v>
+        <v>71.614779929893146</v>
       </c>
       <c r="Z3">
-        <v>67.176247108197344</v>
+        <v>67.176247087530172</v>
       </c>
       <c r="AA3">
-        <v>77.579020114172863</v>
+        <v>77.579020166022715</v>
       </c>
       <c r="AB3">
-        <v>73.767871449797866</v>
+        <v>73.767871480310603</v>
       </c>
       <c r="AC3">
-        <v>61.965809586001697</v>
+        <v>61.965809547300211</v>
       </c>
       <c r="AD3">
-        <v>81.125637218376241</v>
+        <v>81.125637211289188</v>
       </c>
       <c r="AE3">
-        <v>56.052789177469535</v>
+        <v>56.052789072236735</v>
       </c>
       <c r="AF3">
-        <v>65.607690969192575</v>
+        <v>65.607690813313354</v>
       </c>
       <c r="AG3">
-        <v>58.96700454196754</v>
+        <v>58.967004388174047</v>
       </c>
       <c r="AH3">
-        <v>73.420137551095493</v>
+        <v>73.420137353456681</v>
       </c>
       <c r="AI3">
-        <v>98.344012602658012</v>
+        <v>98.344012490294816</v>
       </c>
       <c r="AJ3">
-        <v>66.612518519145937</v>
+        <v>66.612518518403789</v>
       </c>
       <c r="AK3">
-        <v>69.576644522085701</v>
+        <v>69.576644370729781</v>
       </c>
       <c r="AL3">
-        <v>72.154691429865252</v>
+        <v>72.154691587419975</v>
       </c>
       <c r="AM3">
-        <v>76.697999405480857</v>
+        <v>76.697999349687564</v>
       </c>
       <c r="AN3">
-        <v>50.07110060377623</v>
+        <v>50.071100590021587</v>
       </c>
       <c r="AO3">
-        <v>75.759971290038393</v>
+        <v>75.759971345735465</v>
       </c>
       <c r="AP3">
-        <v>59.133555102712506</v>
+        <v>59.133555028794135</v>
       </c>
       <c r="AQ3">
-        <v>57.022747022199468</v>
+        <v>57.022747015896542</v>
       </c>
       <c r="AR3">
-        <v>86.901427326582336</v>
+        <v>86.901427348512172</v>
       </c>
       <c r="AS3">
-        <v>66.711730013393947</v>
+        <v>66.711730042533702</v>
       </c>
       <c r="AT3">
-        <v>69.169287692807302</v>
+        <v>69.169287597350149</v>
       </c>
       <c r="AU3">
-        <v>60.11487221028348</v>
+        <v>60.114872120259953</v>
       </c>
       <c r="AV3">
-        <v>57.350849402521142</v>
+        <v>57.350849331413869</v>
       </c>
       <c r="AW3">
-        <v>60.564114467890832</v>
+        <v>60.564113645939017</v>
       </c>
       <c r="AX3">
-        <v>65.971450971718596</v>
+        <v>65.971450785856888</v>
       </c>
       <c r="AY3">
-        <v>77.840882680212331</v>
+        <v>77.84088264659897</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>65.320719395061715</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>68.567151221587153</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>58.779932629589901</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>72.61854611349807</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>45.207014903180728</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>57.33642307604574</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>50.882517796281185</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.872849403347615</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>72.229963618263923</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>56.640944762568736</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>57.349827085648187</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>66.014516837728138</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>63.777680001298435</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>50.720884012982765</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>62.076159881430776</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>63.467330085358093</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>56.772752221374418</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>86.314184649541147</v>
+        <v>80.346016548518108</v>
       </c>
       <c r="T2">
         <v>65.740766928298285</v>
@@ -588,55 +477,55 @@
         <v>61.626800735623092</v>
       </c>
       <c r="AA2">
-        <v>80.813194738896286</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>82.165333920838179</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>54.869620958936594</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>80.461113095409729</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>53.337324879504266</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>61.643992979731699</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>55.145100973893314</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>64.436143765629126</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>84.602018253757322</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>60.888055844081755</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>63.241296270244163</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>72.139036106422793</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>67.619524936529714</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>53.094941844320054</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>71.273754759340804</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>69.541423912280919</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>60.124740101386323</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>83.454139703032553</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>70.384486170290501</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>63.99600640345804</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>60.483041289375052</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>66.929347802437107</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>45.175716946168976</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>62.73237571745539</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>45.59427745884382</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>63.260513863655902</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>76.008676474135257</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>67.112717097407</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>60.884565302468019</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.805439516043904</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>64.919210033023205</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>40.183489811746355</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>66.1010750680895</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>57.019624664317838</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>51.026369555577283</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>77.220094697652357</v>
@@ -743,55 +629,55 @@
         <v>67.176247087530172</v>
       </c>
       <c r="AA3">
-        <v>77.579020166022715</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>73.767871480310603</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>61.965809547300211</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>81.125637211289188</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>56.052789072236735</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>65.607690813313354</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>58.967004388174047</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>73.420137353456681</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>98.344012490294816</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>66.612518518403789</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>69.576644370729781</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>72.154691587419975</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>76.697999349687564</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>50.071100590021587</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>75.759971345735465</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>59.133555028794135</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>57.022747015896542</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>86.901427348512172</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.320719352480722</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="C2">
-        <v>66.691675655509741</v>
+        <v>56.772752221374418</v>
       </c>
       <c r="D2">
-        <v>58.77993261457064</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="E2">
-        <v>72.618546112712949</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="F2">
         <v>45.207014915627681</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>45.807443843297833</v>
       </c>
       <c r="C3">
-        <v>63.996006396665244</v>
+        <v>51.026369555577283</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>51.765353212861513</v>
       </c>
       <c r="E3">
-        <v>66.929347781275865</v>
+        <v>56.815140331805843</v>
       </c>
       <c r="F3">
         <v>45.175716959040436</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>65.320719352480722</v>
+        <v>63.201107857638846</v>
       </c>
       <c r="C2">
-        <v>66.691675655509741</v>
+        <v>50.720884012982765</v>
       </c>
       <c r="D2">
-        <v>58.77993261457064</v>
+        <v>67.619524936529714</v>
       </c>
       <c r="E2">
-        <v>72.618546112712949</v>
+        <v>53.094941844320054</v>
       </c>
       <c r="F2">
         <v>45.207014915627681</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.384486312871147</v>
+        <v>64.919210033023205</v>
       </c>
       <c r="C3">
-        <v>63.996006396665244</v>
+        <v>45.807443843297833</v>
       </c>
       <c r="D3">
-        <v>60.483041367268655</v>
+        <v>76.697999349687564</v>
       </c>
       <c r="E3">
-        <v>72.332849855225589</v>
+        <v>51.765353212861513</v>
       </c>
       <c r="F3">
         <v>45.175716959040436</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>65.320719395061715</v>
+      </c>
+      <c r="C2">
+        <v>66.691675545590059</v>
+      </c>
+      <c r="D2">
+        <v>58.779932629589901</v>
+      </c>
+      <c r="E2">
+        <v>72.61854611349807</v>
+      </c>
+      <c r="F2">
+        <v>45.207014903180728</v>
+      </c>
+      <c r="G2">
+        <v>61.096896847578819</v>
+      </c>
+      <c r="H2">
+        <v>50.882517796281185</v>
+      </c>
+      <c r="I2">
+        <v>64.061350255519883</v>
+      </c>
+      <c r="J2">
+        <v>72.229963618263923</v>
+      </c>
+      <c r="K2">
+        <v>56.640944762568736</v>
+      </c>
+      <c r="L2">
+        <v>59.656904856998622</v>
+      </c>
+      <c r="M2">
+        <v>72.760070371460301</v>
+      </c>
+      <c r="N2">
         <v>63.201107857638846</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>50.720884012982765</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>63.580616801295001</v>
+      </c>
+      <c r="Q2">
+        <v>63.467330085358093</v>
+      </c>
+      <c r="R2">
+        <v>56.772752221374418</v>
+      </c>
+      <c r="T2">
+        <v>62.520982682854118</v>
+      </c>
+      <c r="U2">
+        <v>60.876303837554978</v>
+      </c>
+      <c r="V2">
+        <v>57.136437560124662</v>
+      </c>
+      <c r="W2">
+        <v>49.615576494916738</v>
+      </c>
+      <c r="X2">
+        <v>59.015869817327037</v>
+      </c>
+      <c r="Y2">
+        <v>62.466362129677222</v>
+      </c>
+      <c r="Z2">
+        <v>61.626800735623092</v>
+      </c>
+      <c r="AA2">
+        <v>80.813194738896286</v>
+      </c>
+      <c r="AB2">
+        <v>82.165333920838179</v>
+      </c>
+      <c r="AC2">
+        <v>54.869620958936594</v>
+      </c>
+      <c r="AD2">
+        <v>80.461113095409729</v>
+      </c>
+      <c r="AE2">
+        <v>53.337324879504266</v>
+      </c>
+      <c r="AF2">
+        <v>61.643992979731699</v>
+      </c>
+      <c r="AG2">
+        <v>55.145100973893314</v>
+      </c>
+      <c r="AH2">
+        <v>64.436143765629126</v>
+      </c>
+      <c r="AI2">
+        <v>84.602018253757322</v>
+      </c>
+      <c r="AJ2">
+        <v>60.888055844081755</v>
+      </c>
+      <c r="AK2">
+        <v>63.241296270244163</v>
+      </c>
+      <c r="AL2">
+        <v>72.139036106422793</v>
+      </c>
+      <c r="AM2">
         <v>67.619524936529714</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>53.094941844320054</v>
       </c>
-      <c r="F2">
-        <v>45.207014915627681</v>
-      </c>
-      <c r="G2">
-        <v>61.096897100218229</v>
-      </c>
-      <c r="H2">
-        <v>50.882517835785855</v>
-      </c>
-      <c r="I2">
-        <v>64.061350174557276</v>
-      </c>
-      <c r="J2">
-        <v>72.229963555573732</v>
-      </c>
-      <c r="K2">
-        <v>56.640944780927626</v>
-      </c>
-      <c r="L2">
-        <v>59.65690485481003</v>
-      </c>
-      <c r="M2">
-        <v>72.760070410685358</v>
-      </c>
-      <c r="N2">
-        <v>63.201107879105606</v>
-      </c>
-      <c r="O2">
-        <v>50.720883995457143</v>
-      </c>
-      <c r="P2">
-        <v>63.580616778117871</v>
-      </c>
-      <c r="Q2">
-        <v>63.467330093484748</v>
-      </c>
-      <c r="R2">
-        <v>56.772752200810771</v>
-      </c>
-      <c r="T2">
-        <v>62.520982685199108</v>
-      </c>
-      <c r="U2">
-        <v>60.876303846217809</v>
-      </c>
-      <c r="V2">
-        <v>57.136437623537134</v>
-      </c>
-      <c r="W2">
-        <v>49.615576616708367</v>
-      </c>
-      <c r="X2">
-        <v>59.015869824449688</v>
-      </c>
-      <c r="Y2">
-        <v>62.466362171694058</v>
-      </c>
-      <c r="Z2">
-        <v>61.626800756371836</v>
-      </c>
-      <c r="AA2">
-        <v>80.813194757362439</v>
-      </c>
-      <c r="AB2">
-        <v>82.165333874942007</v>
-      </c>
-      <c r="AC2">
-        <v>54.869620982359919</v>
-      </c>
-      <c r="AD2">
-        <v>80.461113082417384</v>
-      </c>
-      <c r="AE2">
-        <v>53.33732501995781</v>
-      </c>
-      <c r="AF2">
-        <v>61.643993067461409</v>
-      </c>
-      <c r="AG2">
-        <v>55.145100942597011</v>
-      </c>
-      <c r="AH2">
-        <v>64.436143816351006</v>
-      </c>
-      <c r="AI2">
-        <v>84.602018385632007</v>
-      </c>
-      <c r="AJ2">
-        <v>60.888055951794385</v>
-      </c>
-      <c r="AK2">
-        <v>63.241296244732467</v>
-      </c>
-      <c r="AL2">
-        <v>72.139036197277477</v>
-      </c>
-      <c r="AM2">
-        <v>67.619525025977083</v>
-      </c>
-      <c r="AN2">
-        <v>53.094941877967401</v>
-      </c>
       <c r="AO2">
-        <v>71.273754708878158</v>
+        <v>71.273754759340804</v>
       </c>
       <c r="AP2">
-        <v>71.774837533043907</v>
+        <v>71.774837486816082</v>
       </c>
       <c r="AQ2">
-        <v>60.124740185581437</v>
+        <v>60.124740101386323</v>
       </c>
       <c r="AR2">
-        <v>83.454139699676205</v>
+        <v>83.454139703032553</v>
       </c>
       <c r="AS2">
-        <v>76.813368238506143</v>
+        <v>76.813368191467248</v>
       </c>
       <c r="AT2">
-        <v>68.649980891863436</v>
+        <v>68.649980972873649</v>
       </c>
       <c r="AU2">
-        <v>54.966429172034537</v>
+        <v>54.966429043522879</v>
       </c>
       <c r="AV2">
-        <v>64.254420872476715</v>
+        <v>64.254420917441806</v>
       </c>
       <c r="AW2">
-        <v>59.306639450598936</v>
+        <v>59.306639370164078</v>
       </c>
       <c r="AX2">
-        <v>71.066739342904995</v>
+        <v>71.066739407832372</v>
       </c>
       <c r="AY2">
-        <v>70.91955135979984</v>
+        <v>70.919551376828082</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>70.384486170290501</v>
+      </c>
+      <c r="C3">
+        <v>63.99600640345804</v>
+      </c>
+      <c r="D3">
+        <v>60.483041289375052</v>
+      </c>
+      <c r="E3">
+        <v>72.332849873690307</v>
+      </c>
+      <c r="F3">
+        <v>45.175716946168976</v>
+      </c>
+      <c r="G3">
+        <v>62.73237571745539</v>
+      </c>
+      <c r="H3">
+        <v>45.59427745884382</v>
+      </c>
+      <c r="I3">
+        <v>63.260513863655902</v>
+      </c>
+      <c r="J3">
+        <v>76.008676474135257</v>
+      </c>
+      <c r="K3">
+        <v>66.18827268349844</v>
+      </c>
+      <c r="L3">
+        <v>60.884565302468019</v>
+      </c>
+      <c r="M3">
+        <v>64.666462977288475</v>
+      </c>
+      <c r="N3">
         <v>64.919210033023205</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>45.807443843297833</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>66.1010750680895</v>
+      </c>
+      <c r="Q3">
+        <v>57.019624664317838</v>
+      </c>
+      <c r="R3">
+        <v>51.026369555577283</v>
+      </c>
+      <c r="S3">
+        <v>77.220094697652357</v>
+      </c>
+      <c r="T3">
+        <v>66.556143552308242</v>
+      </c>
+      <c r="U3">
+        <v>64.123316523739476</v>
+      </c>
+      <c r="V3">
+        <v>59.475082933883265</v>
+      </c>
+      <c r="W3">
+        <v>53.300516967831847</v>
+      </c>
+      <c r="X3">
+        <v>52.39703278113754</v>
+      </c>
+      <c r="Y3">
+        <v>71.614779929893146</v>
+      </c>
+      <c r="Z3">
+        <v>67.176247087530172</v>
+      </c>
+      <c r="AA3">
+        <v>77.579020166022715</v>
+      </c>
+      <c r="AB3">
+        <v>73.767871480310603</v>
+      </c>
+      <c r="AC3">
+        <v>61.965809547300211</v>
+      </c>
+      <c r="AD3">
+        <v>81.125637211289188</v>
+      </c>
+      <c r="AE3">
+        <v>56.052789072236735</v>
+      </c>
+      <c r="AF3">
+        <v>65.607690813313354</v>
+      </c>
+      <c r="AG3">
+        <v>58.967004388174047</v>
+      </c>
+      <c r="AH3">
+        <v>73.420137353456681</v>
+      </c>
+      <c r="AI3">
+        <v>76.759061176848689</v>
+      </c>
+      <c r="AJ3">
+        <v>66.612518518403789</v>
+      </c>
+      <c r="AK3">
+        <v>69.576644370729781</v>
+      </c>
+      <c r="AL3">
+        <v>72.154691587419975</v>
+      </c>
+      <c r="AM3">
         <v>76.697999349687564</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>51.765353212861513</v>
       </c>
-      <c r="F3">
-        <v>45.175716959040436</v>
-      </c>
-      <c r="G3">
-        <v>62.732375672187359</v>
-      </c>
-      <c r="H3">
-        <v>45.594277459440846</v>
-      </c>
-      <c r="I3">
-        <v>63.260513873132929</v>
-      </c>
-      <c r="J3">
-        <v>76.008676301593837</v>
-      </c>
-      <c r="K3">
-        <v>66.188272683551915</v>
-      </c>
-      <c r="L3">
-        <v>60.884565316744826</v>
-      </c>
-      <c r="M3">
-        <v>64.666878147816263</v>
-      </c>
-      <c r="N3">
-        <v>64.919210043175056</v>
-      </c>
-      <c r="O3">
-        <v>45.807443934354623</v>
-      </c>
-      <c r="P3">
-        <v>66.101075120337924</v>
-      </c>
-      <c r="Q3">
-        <v>57.019624643466813</v>
-      </c>
-      <c r="R3">
-        <v>51.026369658694222</v>
-      </c>
-      <c r="S3">
-        <v>77.220094703805302</v>
-      </c>
-      <c r="T3">
-        <v>66.556143540183584</v>
-      </c>
-      <c r="U3">
-        <v>64.123316515215578</v>
-      </c>
-      <c r="V3">
-        <v>59.475082912444911</v>
-      </c>
-      <c r="W3">
-        <v>53.300516955851016</v>
-      </c>
-      <c r="X3">
-        <v>52.397032793658539</v>
-      </c>
-      <c r="Y3">
-        <v>71.614780002865942</v>
-      </c>
-      <c r="Z3">
-        <v>67.176247108197344</v>
-      </c>
-      <c r="AA3">
-        <v>77.579020114172863</v>
-      </c>
-      <c r="AB3">
-        <v>73.767871449797866</v>
-      </c>
-      <c r="AC3">
-        <v>61.965809586001697</v>
-      </c>
-      <c r="AD3">
-        <v>81.125637218376241</v>
-      </c>
-      <c r="AE3">
-        <v>56.052789177469535</v>
-      </c>
-      <c r="AF3">
-        <v>65.607690969192575</v>
-      </c>
-      <c r="AG3">
-        <v>58.96700454196754</v>
-      </c>
-      <c r="AH3">
-        <v>73.420137551095493</v>
-      </c>
-      <c r="AI3">
-        <v>76.759061151941324</v>
-      </c>
-      <c r="AJ3">
-        <v>66.612518519145937</v>
-      </c>
-      <c r="AK3">
-        <v>69.576644522085701</v>
-      </c>
-      <c r="AL3">
-        <v>72.154691429865252</v>
-      </c>
-      <c r="AM3">
-        <v>76.697999405480857</v>
-      </c>
-      <c r="AN3">
-        <v>51.765353191587081</v>
-      </c>
       <c r="AO3">
-        <v>75.759971290038393</v>
+        <v>75.759971345735465</v>
       </c>
       <c r="AP3">
-        <v>59.133555102712506</v>
+        <v>59.133555028794135</v>
       </c>
       <c r="AQ3">
-        <v>56.815140408939513</v>
+        <v>56.815140331805843</v>
       </c>
       <c r="AR3">
-        <v>86.901427326582336</v>
+        <v>86.901427348512172</v>
       </c>
       <c r="AS3">
-        <v>66.711730013393947</v>
+        <v>66.711730042533702</v>
       </c>
       <c r="AT3">
-        <v>69.169287692807302</v>
+        <v>69.169287597350149</v>
       </c>
       <c r="AU3">
-        <v>60.903546946875494</v>
+        <v>60.903546942132856</v>
       </c>
       <c r="AV3">
-        <v>57.350849402521142</v>
+        <v>57.350849331413869</v>
       </c>
       <c r="AW3">
-        <v>60.564114467890832</v>
+        <v>60.564113645939017</v>
       </c>
       <c r="AX3">
-        <v>65.971450971718596</v>
+        <v>65.971450785856888</v>
       </c>
       <c r="AY3">
-        <v>77.840882680212331</v>
+        <v>77.84088264659897</v>
       </c>
     </row>
   </sheetData>
